--- a/data/trans_bre/MCS12_SP_R3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R3-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,9</t>
+          <t>13,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>165,29%</t>
+          <t>176,96%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 20,39</t>
+          <t>5,32; 20,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,4; 428,03</t>
+          <t>39,63; 460,75</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>69,05%</t>
+          <t>50,8%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 14,21</t>
+          <t>-2,46; 12,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,34; 153,45</t>
+          <t>-14,31; 129,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>11,79%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 6,0</t>
+          <t>-2,45; 6,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 37,46</t>
+          <t>-12,1; 40,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>9,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>56,64%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 12,04</t>
+          <t>1,57; 20,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 76,53</t>
+          <t>6,77; 262,63</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>29,75%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,7; 11,57</t>
+          <t>2,93; 11,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,99; 53,85</t>
+          <t>11,11; 54,96</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>11,69</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,35</t>
+          <t>16,73</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,63</t>
+          <t>29,58</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,78%</t>
+          <t>46,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>63,48%</t>
+          <t>91,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>58,86%</t>
+          <t>119,25%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 9,58</t>
+          <t>-3,15; 10,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,09; 18,97</t>
+          <t>3,79; 18,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,62; 19,03</t>
+          <t>9,76; 23,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,45; 36,7</t>
+          <t>5,29; 58,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 40,38</t>
+          <t>-10,58; 44,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,27; 76,95</t>
+          <t>12,41; 85,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>36,55; 95,5</t>
+          <t>43,41; 155,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,33; 154,67</t>
+          <t>20,4; 254,64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,39</t>
+          <t>14,19</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>10,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>11,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>46,64%</t>
+          <t>44,17%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>37,23%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>50,15%</t>
+          <t>37,15%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-3,13; 13,38</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6,47; 22,39</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 18,55</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6,02; 17,12</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-9,56; 61,29</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>17,17; 84,78</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6,35; 73,83</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17,28; 61,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7,92</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10,39</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7,91</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12,55</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>42,48%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>46,64%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>41,95%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>68,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>5,82; 9,85</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>8,43; 12,63</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>5,87; 9,91</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 17,94</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7,07; 27,02</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>29,39; 56,26</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>35,6; 59,2</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>29,06; 54,99</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>33,72; 89,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>35,01; 161,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/MCS12_SP_R3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R3-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 10,83</t>
+          <t>2,17; 11,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 7,09</t>
+          <t>-2,56; 7,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 5,95</t>
+          <t>-2,99; 5,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,32; 20,84</t>
+          <t>6,0; 20,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,34; 106,19</t>
+          <t>14,39; 112,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 51,22</t>
+          <t>-14,74; 54,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 66,61</t>
+          <t>-22,1; 62,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,63; 460,75</t>
+          <t>43,05; 463,88</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 12,43</t>
+          <t>4,29; 12,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 9,8</t>
+          <t>0,8; 10,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 6,57</t>
+          <t>-2,51; 6,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 12,1</t>
+          <t>-2,35; 11,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,66; 107,23</t>
+          <t>27,67; 110,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 63,02</t>
+          <t>4,03; 66,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 51,76</t>
+          <t>-13,87; 46,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 129,97</t>
+          <t>-15,32; 114,79</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 8,25</t>
+          <t>-1,16; 8,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 15,52</t>
+          <t>5,29; 15,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 8,85</t>
+          <t>0,56; 9,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 6,24</t>
+          <t>-2,8; 6,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 44,61</t>
+          <t>-4,85; 45,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,84; 73,98</t>
+          <t>20,99; 74,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 56,06</t>
+          <t>2,91; 59,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 40,81</t>
+          <t>-13,44; 40,74</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 19,27</t>
+          <t>7,94; 19,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,79; 18,49</t>
+          <t>7,27; 18,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 12,43</t>
+          <t>2,1; 12,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 20,97</t>
+          <t>1,47; 19,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,67; 132,51</t>
+          <t>40,69; 130,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,65; 92,57</t>
+          <t>30,84; 91,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,28; 61,19</t>
+          <t>7,91; 59,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 262,63</t>
+          <t>5,52; 279,04</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 14,15</t>
+          <t>1,31; 13,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,61; 19,49</t>
+          <t>6,46; 19,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 18,4</t>
+          <t>5,77; 17,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 11,77</t>
+          <t>2,89; 11,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,05; 64,95</t>
+          <t>3,83; 62,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,35; 83,03</t>
+          <t>21,89; 85,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,37; 101,91</t>
+          <t>23,86; 97,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,11; 54,96</t>
+          <t>10,63; 55,79</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 10,59</t>
+          <t>-3,27; 10,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,79; 18,56</t>
+          <t>4,38; 18,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,76; 23,21</t>
+          <t>10,49; 23,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,29; 58,77</t>
+          <t>4,4; 56,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 44,42</t>
+          <t>-11,45; 44,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,41; 85,9</t>
+          <t>14,98; 88,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>43,41; 155,12</t>
+          <t>45,85; 150,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,4; 254,64</t>
+          <t>17,45; 269,94</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 13,38</t>
+          <t>-4,35; 12,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,47; 22,39</t>
+          <t>5,84; 22,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 18,55</t>
+          <t>3,25; 18,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,02; 17,12</t>
+          <t>5,53; 17,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 61,29</t>
+          <t>-13,23; 55,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,17; 84,78</t>
+          <t>16,03; 83,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,35; 73,83</t>
+          <t>9,96; 74,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,28; 61,01</t>
+          <t>16,03; 62,64</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,85</t>
+          <t>5,65; 9,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,63</t>
+          <t>8,28; 12,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,87; 9,91</t>
+          <t>5,97; 9,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,07; 27,02</t>
+          <t>7,09; 23,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,39; 56,26</t>
+          <t>28,56; 56,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,6; 59,2</t>
+          <t>35,85; 60,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>29,06; 54,99</t>
+          <t>30,23; 56,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>35,01; 161,89</t>
+          <t>35,82; 140,26</t>
         </is>
       </c>
     </row>
